--- a/FamilyLeague.xlsx
+++ b/FamilyLeague.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="25">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,22 +58,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>4 - 1 - 0</t>
-  </si>
-  <si>
-    <t>2 - 3 - 0</t>
-  </si>
-  <si>
-    <t>1 - 4 - 0</t>
-  </si>
-  <si>
-    <t>0 - 5 - 0</t>
-  </si>
-  <si>
-    <t>3 - 2 - 0</t>
-  </si>
-  <si>
-    <t>5 - 0 - 0</t>
+    <t>4 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 4 - 0</t>
+  </si>
+  <si>
+    <t>1 - 5 - 0</t>
+  </si>
+  <si>
+    <t>0 - 6 - 0</t>
+  </si>
+  <si>
+    <t>3 - 3 - 0</t>
+  </si>
+  <si>
+    <t>5 - 1 - 0</t>
+  </si>
+  <si>
+    <t>6 - 0 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -498,10 +504,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -510,10 +516,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -525,10 +531,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -539,10 +545,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -551,10 +557,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -580,37 +586,37 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -621,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -662,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -674,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -689,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -703,10 +709,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -715,25 +721,25 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -782,40 +788,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -826,10 +832,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -867,10 +873,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -879,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -908,37 +914,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -946,40 +952,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1014,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1025,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.583333333333333</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1053,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.833333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1067,13 +1073,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1084,10 +1090,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2.833333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1095,13 +1101,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1109,13 +1115,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.916666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1123,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1137,13 +1143,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2.916666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1151,13 +1157,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1165,13 +1171,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1181,38 +1187,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1220,27 +1232,33 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4.25</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3.416666666666667</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1248,41 +1266,50 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3.416666666666667</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2.833333333333333</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1290,27 +1317,33 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2.416666666666667</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1318,13 +1351,16 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1332,13 +1368,16 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1346,13 +1385,16 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1.083333333333333</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1362,7 +1404,10 @@
       <c r="C13">
         <v>0.9166666666666666</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1384,10 +1429,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1398,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1412,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1423,13 +1468,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1437,13 +1482,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1451,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1468,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1479,13 +1524,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1493,13 +1538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1510,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1521,13 +1566,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>-19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1535,13 +1580,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1552,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-24</v>
+        <v>-31</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>

--- a/FamilyLeague.xlsx
+++ b/FamilyLeague.xlsx
@@ -1218,7 +1218,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1235,7 +1235,7 @@
         <v>4.25</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1252,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1286,7 +1286,7 @@
         <v>3.5</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1303,7 +1303,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1320,7 +1320,7 @@
         <v>2.916666666666667</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1337,7 +1337,7 @@
         <v>2.916666666666667</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1354,7 +1354,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1371,7 +1371,7 @@
         <v>2.083333333333333</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1388,7 +1388,7 @@
         <v>1.416666666666667</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1405,7 +1405,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
